--- a/biology/Botanique/Étienne_Soulange-Bodin/Étienne_Soulange-Bodin.xlsx
+++ b/biology/Botanique/Étienne_Soulange-Bodin/Étienne_Soulange-Bodin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Soulange-Bodin</t>
+          <t>Étienne_Soulange-Bodin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chevalier Étienne Soulange-Bodin (né le 6 juin 1774 à Montrichard et mort le 23 juillet 1846 à Ris-Orangis dans son domaine du château de Fromont) est un homme politique, diplomate et botaniste français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Soulange-Bodin</t>
+          <t>Étienne_Soulange-Bodin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,49 +523,123 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Soulange-Bodin est le fils de Pierre Joseph François Bodin et de Françoise Emmanuelle Mesnard.
 Il épouse Mlle Calmelet, fille d'Etienne Calmelet, très proche des Bonaparte et qui avait été témoin au mariage de Bonaparte avec Joséphine de Beauharnais.
-Le botaniste
-Homme passionné, président de la Société linnéenne de Paris, de la Société royale et centrale d'agriculture, de la Société royale d'horticulture de Londres, il révolutionne le monde de l'horticulture par sa pratique et sa théorie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Étienne_Soulange-Bodin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Soulange-Bodin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le botaniste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homme passionné, président de la Société linnéenne de Paris, de la Société royale et centrale d'agriculture, de la Société royale d'horticulture de Londres, il révolutionne le monde de l'horticulture par sa pratique et sa théorie.
 Il achète le château de Fromont, où il met en place de nouvelles méthodes de conservation des plantes dont il dispose plus de 3 000 variétés.
 Il fonde en 1829 la première école d'horticulture française où il utilise la science pour développer la botanique. Charles X lui rend visite et baptise l'institut royal d'horticulture de Fromont. Soulange-Bodin permet l'évolution des jardins avec un caractère social par un nombre plus large de propriétaires.
 Il fut l'inventeur du magnolia de Soulange – magnolia très planté aujourd'hui – et l'organisateur des premières expositions florales au Louvre en 1832.
 On reproche à Soulange-Bodin d'avoir développé la passion de l'impératrice Joséphine pour l'horticulture qui occasionna des dépenses inconsidérées à la Malmaison.
-L'homme politique
-Proche du pouvoir, il est conseiller des ministres, chef de cabinet[1] et ami d'Eugène de Beauharnais en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Étienne_Soulange-Bodin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Soulange-Bodin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'homme politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proche du pouvoir, il est conseiller des ministres, chef de cabinet et ami d'Eugène de Beauharnais en France.
 Il fut maire de Ris-Orangis (Seine-et-Oise) du 4 janvier 1829 au 30 septembre 1846.
 Napoléon lui décerne la Légion d'honneur et la Couronne de fer.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89tienne_Soulange-Bodin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Étienne_Soulange-Bodin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Soulange-Bodin</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1824 : Catalogue des plantes rares cultivées et multipliées dans le jardin de Fromont ;
 1826 : Notice sur une nouvelle espèce de magnolia, relation de la fête champêtre annuelle célébrée par la Société linnéenne de Paris, le 24 mai 1826 : 12 pages ;
